--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/VENTAS CENTRAL AGOSTO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/VENTAS CENTRAL AGOSTO 2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -306,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,22 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -394,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -409,6 +425,22 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -17867,965 +17899,870 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B2" s="17">
         <v>9938</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10">
+      <c r="C2" s="18">
         <v>20969</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E2" s="10">
         <v>20969</v>
       </c>
-      <c r="G1" s="10">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="20">
         <v>9940</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C3" s="21">
         <v>1080</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E3" s="11">
         <v>1080</v>
       </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="17">
         <v>9950</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C4" s="18">
         <v>300</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E4" s="10">
         <v>300</v>
       </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="20">
         <v>9963</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C5" s="21">
         <v>1907.2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E5" s="11">
         <v>1907.2</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="20">
         <v>9981</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C6" s="21">
         <v>500</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E6" s="11">
         <v>500</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="17">
         <v>9985</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C7" s="18">
         <v>2866.38</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10">
+      <c r="E7" s="10">
         <v>2866.38</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H7" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="17">
         <v>9988</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C8" s="18">
         <v>13086.8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10">
+      <c r="E8" s="10">
         <v>13086.8</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="20">
         <v>10001</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C9" s="21">
         <v>300</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="E9" s="11">
         <v>300</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="17">
         <v>10011</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C10" s="18">
         <v>3566.2</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10">
+      <c r="E10" s="10">
         <v>3566.2</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="20">
         <v>10013</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C11" s="21">
         <v>500</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11">
+      <c r="E11" s="11">
         <v>500</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="H11" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="20">
         <v>10017</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C12" s="21">
         <v>1380</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11">
+      <c r="E12" s="11">
         <v>1380</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="H12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="17">
         <v>10036</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C13" s="18">
         <v>1800</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10">
+      <c r="E13" s="10">
         <v>1800</v>
       </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="H13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="20">
         <v>10049</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C14" s="21">
         <v>13000.8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11">
+      <c r="E14" s="11">
         <v>13000.8</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="17">
         <v>10054</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C15" s="18">
         <v>30306.68</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="10">
+      <c r="E15" s="10">
         <v>30306.68</v>
       </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="20">
         <v>10063</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C16" s="21">
         <v>400</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="11">
+      <c r="E16" s="11">
         <v>400</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="20">
         <v>10067</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="17">
         <v>10068</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C18" s="18">
         <v>65604</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="10">
+      <c r="E18" s="10">
         <v>65604</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="H18" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="17">
         <v>10080</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C19" s="18">
         <v>24654.400000000001</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="10">
+      <c r="E19" s="10">
         <v>24654.400000000001</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="20">
         <v>10085</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C20" s="21">
         <v>2029.1</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11">
+      <c r="E20" s="11">
         <v>2029.1</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="20">
         <v>10087</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C21" s="21">
         <v>16779.599999999999</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E21" s="11">
         <v>16779.599999999999</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="17">
         <v>10106</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C22" s="18">
         <v>3162</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E22" s="10">
         <v>3162</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H22" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="20">
         <v>10107</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C23" s="21">
         <v>43133.2</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="11">
+      <c r="E23" s="11">
         <v>43133.2</v>
       </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="H23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="20">
         <v>10115</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C24" s="21">
         <v>11058</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="11">
+      <c r="E24" s="11">
         <v>11058</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="H24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="20">
         <v>10123</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C25" s="21">
         <v>2038</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="11">
+      <c r="E25" s="11">
         <v>2038</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="H25" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="17">
         <v>10124</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C26" s="18">
         <v>26455.599999999999</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="10">
+      <c r="E26" s="10">
         <v>26455.599999999999</v>
       </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="H26" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="17">
         <v>10134</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C27" s="18">
         <v>1670</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="10">
+      <c r="E27" s="10">
         <v>1670</v>
       </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="H27" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="17">
         <v>10136</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C28" s="18">
         <v>550</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="10">
+      <c r="E28" s="10">
         <v>550</v>
       </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="H28" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="20">
         <v>10141</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C29" s="21">
         <v>440</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="11">
+      <c r="E29" s="11">
         <v>440</v>
       </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="20">
         <v>10148</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C30" s="21">
         <v>1298</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="11">
+      <c r="E30" s="11">
         <v>1298</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="H30" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="17">
         <v>10160</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C31" s="18">
         <v>9934</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="10">
+      <c r="E31" s="10">
         <v>9934</v>
       </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="H31" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="20">
         <v>10183</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C32" s="21">
         <v>550</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="11">
+      <c r="E32" s="11">
         <v>550</v>
       </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="H32" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="17">
         <v>10187</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="C33" s="18">
         <v>440</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="10">
+      <c r="E33" s="10">
         <v>440</v>
       </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D34" s="13">
-        <f>SUM(D1:D33)</f>
+      <c r="H33" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="13">
+        <f>SUM(C2:C34)</f>
         <v>301758.95999999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J281">
-    <sortCondition ref="C3:C281"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
